--- a/Tools/Config.xlsx
+++ b/Tools/Config.xlsx
@@ -4,25 +4,41 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TEST_Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="_Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="_Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -30,23 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fffff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dddd</t>
+    <t>jhon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,36 +463,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2345</v>
-      </c>
-      <c r="B3">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -500,31 +535,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>333</v>
       </c>
@@ -543,7 +584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
